--- a/reports/product_detail_China_2014_M_Mozambique.xlsx
+++ b/reports/product_detail_China_2014_M_Mozambique.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/Library/CloudStorage/GoogleDrive-joaquim.carvalho@gmail.com/My Drive/CIPF-interno/Outputs/dados-CN-PLP/fontes_estatisticas/exemplos/comtradeplus.un.org/api/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9014F3A2-CDB1-2D46-9ECF-C47DE571FA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="36960" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -262,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,10 +321,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,11 +338,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +424,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,6 +476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +669,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="85" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +698,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -652,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>96</v>
       </c>
@@ -671,7 +733,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="s">
@@ -687,7 +749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>95</v>
       </c>
@@ -706,7 +768,7 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H3" t="s">
@@ -722,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>99</v>
       </c>
@@ -741,7 +803,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H4" t="s">
@@ -754,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>99.70391214208625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>99.703912142086253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>74</v>
       </c>
@@ -776,7 +838,7 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H5" t="s">
@@ -792,7 +854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>75</v>
       </c>
@@ -811,7 +873,7 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -824,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>81.60918689937816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>81.609186899378159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>77</v>
       </c>
@@ -846,7 +908,7 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H7" t="s">
@@ -859,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>81.56737884546168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>81.567378845461675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -881,7 +943,7 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
@@ -897,7 +959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>19</v>
       </c>
@@ -916,7 +978,7 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
@@ -932,7 +994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -951,7 +1013,7 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H10" t="s">
@@ -967,7 +1029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -986,7 +1048,7 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H11" t="s">
@@ -1002,7 +1064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>78</v>
       </c>
@@ -1021,7 +1083,7 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H12" t="s">
@@ -1034,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>18.39081310062184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>18.390813100621841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>80</v>
       </c>
@@ -1056,7 +1118,7 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H13" t="s">
@@ -1069,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.33491338941194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>18.334913389411941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>54</v>
       </c>
@@ -1091,7 +1153,7 @@
       <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
@@ -1104,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>62.87780814546318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>62.877808145463177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>55</v>
       </c>
@@ -1126,7 +1188,7 @@
       <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H15" t="s">
@@ -1139,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>62.87780814546318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>62.877808145463177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>56</v>
       </c>
@@ -1161,7 +1223,7 @@
       <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H16" t="s">
@@ -1174,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>26.86108790273462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>26.861087902734621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>57</v>
       </c>
@@ -1196,7 +1258,7 @@
       <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H17" t="s">
@@ -1209,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.48259825614866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>18.482598256148659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>64</v>
       </c>
@@ -1231,7 +1293,7 @@
       <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H18" t="s">
@@ -1247,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>65</v>
       </c>
@@ -1266,7 +1328,7 @@
       <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H19" t="s">
@@ -1282,7 +1344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>63</v>
       </c>
@@ -1301,7 +1363,7 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H20" t="s">
@@ -1317,7 +1379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>58</v>
       </c>
@@ -1336,7 +1398,7 @@
       <c r="F21" t="s">
         <v>31</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H21" t="s">
@@ -1349,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.378489646585967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>8.3784896465859671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>53</v>
       </c>
@@ -1371,7 +1433,7 @@
       <c r="F22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="H22" t="s">
@@ -1384,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.89979455516966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>4.8997945551696596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>52</v>
       </c>
@@ -1406,7 +1468,7 @@
       <c r="F23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
       <c r="H23" t="s">
@@ -1419,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>4.89979455516966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>4.8997945551696596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>97</v>
       </c>
@@ -1441,7 +1503,7 @@
       <c r="F24" t="s">
         <v>34</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H24" t="s">
@@ -1457,7 +1519,7 @@
         <v>0.2764795282529966</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>47</v>
       </c>
@@ -1476,7 +1538,7 @@
       <c r="F25" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H25" t="s">
@@ -1489,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.527169981649245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>3.5271699816492448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -1511,7 +1573,7 @@
       <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H26" t="s">
@@ -1524,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>3.527169981649245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3.5271699816492448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>60</v>
       </c>
@@ -1546,7 +1608,7 @@
       <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H27" t="s">
@@ -1559,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1.546608862250406</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>1.5466088622504059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>59</v>
       </c>
@@ -1581,7 +1643,7 @@
       <c r="F28" t="s">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H28" t="s">
@@ -1594,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1.546608862250406</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>1.5466088622504059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>79</v>
       </c>
@@ -1616,7 +1678,7 @@
       <c r="F29" t="s">
         <v>39</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H29" t="s">
@@ -1629,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.05589971120989838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>5.5899711209898381E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>98</v>
       </c>
@@ -1651,7 +1713,7 @@
       <c r="F30" t="s">
         <v>40</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H30" t="s">
@@ -1664,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0.01960832966074044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>1.9608329660740439E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -1686,7 +1748,7 @@
       <c r="F31" t="s">
         <v>41</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H31" t="s">
@@ -1699,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.04180805391647777</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>4.1808053916477773E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>62</v>
       </c>
@@ -1721,7 +1783,7 @@
       <c r="F32" t="s">
         <v>42</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H32" t="s">
@@ -1734,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.1728475432822497</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.17284754328224969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>61</v>
       </c>
@@ -1756,7 +1818,7 @@
       <c r="F33" t="s">
         <v>43</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H33" t="s">
@@ -1769,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0.1728475432822497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.17284754328224969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>48</v>
       </c>
@@ -1791,7 +1853,7 @@
       <c r="F34" t="s">
         <v>44</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H34" t="s">
@@ -1804,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.0848431239207745</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>8.4843123920774505E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>49</v>
       </c>
@@ -1826,7 +1888,7 @@
       <c r="F35" t="s">
         <v>45</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H35" t="s">
@@ -1839,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0.0848431239207745</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>8.4843123920774505E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>51</v>
       </c>
@@ -1861,7 +1923,7 @@
       <c r="F36" t="s">
         <v>46</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H36" t="s">
@@ -1874,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.02983988552986043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>2.983988552986043E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>50</v>
       </c>
@@ -1896,7 +1958,7 @@
       <c r="F37" t="s">
         <v>47</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H37" t="s">
@@ -1909,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>0.02983988552986043</v>
+        <v>2.983988552986043E-2</v>
       </c>
     </row>
   </sheetData>
